--- a/eval/responses/claude-opus-4-5-20251101/20260114_165753_squashed/m-006_output_1.xlsx
+++ b/eval/responses/claude-opus-4-5-20251101/20260114_165753_squashed/m-006_output_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Code\ib-bench\eval\responses\claude-opus-4-5-20251101\20260107_063702_squashed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Code\ib-bench\eval\responses\claude-opus-4-5-20251101\20260114_165753_squashed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF467471-D03A-4B68-9F8B-8D0A5D39E8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96B2C19-7E9E-4067-B9DB-E566926E0560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="14431" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1450,17 +1450,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="10.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.265625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.265625" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="4"/>
       <c r="D4" s="18" t="s">
         <v>6</v>
@@ -1501,7 +1501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="16" t="s">
         <v>8</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>53.946401200510607</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>42.650782947560742</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>32.533501129463197</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>36.20233875574327</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
@@ -1595,14 +1595,14 @@
         <v>165.33302403327781</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" s="6"/>
       <c r="D11" s="70"/>
       <c r="E11" s="70"/>
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="F12" s="71"/>
       <c r="G12" s="71"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>15.56481125953708</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>15.21322970227984</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>6.918528094937475</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>14.52839687443806</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
@@ -1696,14 +1696,14 @@
         <v>52.224965931192443</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" s="6"/>
       <c r="D18" s="73"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="73"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" s="17" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="F19" s="74"/>
       <c r="G19" s="74"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>-26.453283845324449</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>-9.3418151038012862</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>2.1493293124326112</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
@@ -1780,14 +1780,14 @@
         <v>-33.645769636693117</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
       <c r="F24" s="72"/>
       <c r="G24" s="72"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C25" s="9" t="s">
         <v>21</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" s="9"/>
       <c r="D26" s="72">
         <f>+D17+D23</f>
@@ -1824,7 +1824,7 @@
         <v>18.579196294499326</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C27" s="20" t="s">
         <v>22</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="F27" s="72"/>
       <c r="G27" s="72"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>-4.3133125165505906</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>-3.1403289647901</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
         <v>25</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>-1.570164482395048</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
@@ -1918,14 +1918,14 @@
         <v>-1.936614544292321</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="75"/>
       <c r="E33" s="75"/>
       <c r="F33" s="72"/>
       <c r="G33" s="72"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C34" s="20" t="s">
         <v>29</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="F34" s="74"/>
       <c r="G34" s="74"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C35" s="6" t="s">
         <v>13</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0.12394985746619858</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C36" s="6" t="s">
         <v>15</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>0.1353253463302706</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" s="6" t="s">
         <v>20</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>2.1549491372597762E-2</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C38" s="6" t="s">
         <v>21</v>
       </c>
@@ -2008,14 +2008,14 @@
         <v>0.42216916693208861</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C39" s="6"/>
       <c r="D39" s="76"/>
       <c r="E39" s="77"/>
       <c r="F39" s="77"/>
       <c r="G39" s="77"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C40" s="17" t="s">
         <v>30</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="F40" s="77"/>
       <c r="G40" s="77"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C41" s="6" t="s">
         <v>15</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0.31587740100054501</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C42" s="6" t="s">
         <v>20</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>-0.20350301963823625</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C43" s="6" t="s">
         <v>21</v>
       </c>
@@ -2087,14 +2087,14 @@
         <v>0.11237438136230875</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C44" s="6"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C45" s="19" t="s">
         <v>31</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C46" s="4" t="s">
         <v>32</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>2020E</v>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C47" s="16" t="s">
         <v>33</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="3:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="3" t="s">
         <v>34</v>
       </c>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="H48" s="74"/>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="3" t="s">
         <v>35</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="H49" s="74"/>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C50" s="3" t="s">
         <v>36</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="H50" s="74"/>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C51" s="3" t="s">
         <v>37</v>
       </c>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="H51" s="74"/>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C52" s="3" t="s">
         <v>38</v>
       </c>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="H52" s="74"/>
     </row>
-    <row r="53" spans="3:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="3" t="s">
         <v>39</v>
       </c>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="H53" s="74"/>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C54" s="3" t="s">
         <v>40</v>
       </c>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H54" s="74"/>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C55" s="3" t="s">
         <v>41</v>
       </c>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="H55" s="74"/>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C56" s="3" t="s">
         <v>42</v>
       </c>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="H56" s="74"/>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C57" s="3" t="s">
         <v>43</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="H57" s="74"/>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="74"/>
       <c r="E58" s="78"/>
@@ -2298,7 +2298,7 @@
       <c r="G58" s="78"/>
       <c r="H58" s="74"/>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C59" s="16" t="s">
         <v>44</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="G59" s="74"/>
       <c r="H59" s="74"/>
     </row>
-    <row r="60" spans="3:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="3" t="s">
         <v>45</v>
       </c>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="H60" s="74"/>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C61" s="3" t="s">
         <v>46</v>
       </c>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="H61" s="79"/>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C62" s="3" t="s">
         <v>47</v>
       </c>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="H62" s="74"/>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C63" s="3" t="s">
         <v>48</v>
       </c>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="H63" s="74"/>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C64" s="3" t="s">
         <v>49</v>
       </c>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="H64" s="74"/>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C65" s="3" t="s">
         <v>50</v>
       </c>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="H65" s="74"/>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C66" s="3" t="s">
         <v>51</v>
       </c>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="H66" s="74"/>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C67" s="3" t="s">
         <v>52</v>
       </c>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H67" s="74"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C68" s="3" t="s">
         <v>53</v>
       </c>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H68" s="74"/>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C69" s="3" t="s">
         <v>54</v>
       </c>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="H69" s="74"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C70" s="3" t="s">
         <v>43</v>
       </c>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="H70" s="74"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="74"/>
       <c r="E71" s="80"/>
@@ -2492,7 +2492,7 @@
       <c r="G71" s="80"/>
       <c r="H71" s="74"/>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C72" s="6" t="s">
         <v>55</v>
       </c>
@@ -2508,14 +2508,14 @@
       </c>
       <c r="H72" s="74"/>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C74" s="14" t="s">
         <v>56</v>
       </c>
@@ -2524,7 +2524,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C75" s="13" t="s">
         <v>57</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C76" s="12" t="s">
         <v>58</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C77" s="13" t="s">
         <v>59</v>
       </c>
@@ -2551,20 +2551,20 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F84" s="2"/>
     </row>
   </sheetData>
@@ -2577,21 +2577,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U188"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="1.73046875" style="82" customWidth="1"/>
-    <col min="3" max="3" width="30.73046875" style="82" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" style="82" customWidth="1"/>
+    <col min="1" max="2" width="1.7109375" style="82" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="82" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>60</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D2" s="24">
         <v>2017</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
         <v>67</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>78</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8" s="28" t="s">
         <v>82</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>85</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>146.3960207736956</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>86</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>3.7733252300000002</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>88</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>91</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>94</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>34.226950515430282</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14" s="28" t="s">
         <v>95</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>195.33876076074762</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>96</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>65.61187051867465</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>97</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>3.7733252300000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>98</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>11.147517776699601</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>77</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F19" s="56" t="s">
         <v>99</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>295.8714742861219</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>9</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>10</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>0.16946551897991768</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>101</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>237.46460365293279</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C27" s="38" t="s">
         <v>102</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="K27" s="28"/>
       <c r="L27" s="39"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C28" s="40" t="s">
         <v>103</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>130.09702627097391</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C29" s="40" t="s">
         <v>104</v>
       </c>
@@ -3266,19 +3266,19 @@
         <v>6.1539752031491979E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C30" s="40"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="L30" s="41"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>105</v>
       </c>
       <c r="L31" s="41"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C32" s="40" t="s">
         <v>103</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>71.165238626215626</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="40" t="s">
         <v>104</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>0.12000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="44" t="s">
         <v>106</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="44" t="s">
         <v>107</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="44"/>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
@@ -3418,7 +3418,7 @@
       <c r="K36" s="35"/>
       <c r="L36" s="45"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
         <v>108</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="K37" s="29"/>
       <c r="L37" s="42"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="40" t="s">
         <v>103</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>36.20233875574327</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="46" t="s">
         <v>104</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>9</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="K41" s="31"/>
       <c r="L41" s="31"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>10</v>
       </c>
@@ -3557,7 +3557,7 @@
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>109</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>69.883967151600928</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>110</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>0.29429214323554542</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>17</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>-30.66660614198365</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>18</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>-10.829724056740995</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>2.1493293124326112</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>111</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="K51" s="31"/>
       <c r="L51" s="31"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>112</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>-39.34700088629203</v>
       </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" s="38" t="s">
         <v>113</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="K54" s="28"/>
       <c r="L54" s="39"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="40" t="s">
         <v>17</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>-30.66660614198365</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" s="40" t="s">
         <v>110</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>0.12914179911547799</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" s="40" t="s">
         <v>104</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" s="40"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
@@ -4015,7 +4015,7 @@
       <c r="K58" s="35"/>
       <c r="L58" s="45"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59" s="40" t="s">
         <v>18</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>-10.829724056740995</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" s="40" t="s">
         <v>110</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>4.5605635072118851E-2</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61" s="40" t="s">
         <v>104</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62" s="40"/>
       <c r="D62" s="29"/>
       <c r="E62" s="29"/>
@@ -4142,7 +4142,7 @@
       <c r="K62" s="35"/>
       <c r="L62" s="45"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63" s="54" t="s">
         <v>114</v>
       </c>
@@ -4156,7 +4156,7 @@
       <c r="K63" s="47"/>
       <c r="L63" s="53"/>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>115</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>30.536966265308898</v>
       </c>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>23</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>-4.1805834842265996</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>25</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>-1.570164482395048</v>
       </c>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>28</v>
       </c>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="H69">
         <f ca="1">+IF(circ=1, H151, 0)</f>
-        <v>-7.1416799137239453</v>
+        <v>-7.1416801729246231</v>
       </c>
       <c r="I69" t="e">
         <f ca="1">+IF(circ=1, I151, 0)</f>
@@ -4319,7 +4319,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>116</v>
       </c>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="H70" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>-15.03216892010466</v>
+        <v>-15.032169179305338</v>
       </c>
       <c r="I70" s="28" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -4360,7 +4360,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72" s="38" t="s">
         <v>117</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="K72" s="28"/>
       <c r="L72" s="39"/>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="40" t="s">
         <v>23</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>-4.1805834842265996</v>
       </c>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="46" t="s">
         <v>118</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>119</v>
       </c>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="10"/>
-        <v>2.2658509546181378</v>
+        <v>2.2658506954174591</v>
       </c>
       <c r="I76" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -4492,7 +4492,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>24</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>-4.1805834842265996</v>
       </c>
     </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C79" s="36" t="s">
         <v>120</v>
       </c>
@@ -4546,7 +4546,7 @@
       <c r="K79" s="31"/>
       <c r="L79" s="31"/>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C80" s="36" t="s">
         <v>121</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>-4.1805834842265996</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C81" s="36" t="s">
         <v>122</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>1.7605080588502131E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>123</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>65</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>103</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>7.5097506906820266E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>104</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>8.1300683010228969E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>14</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>5.9985384577966316E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>125</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>0.29429214323554548</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>21</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0.10448492656449604</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>125</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>0.12859586563873876</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>119</v>
       </c>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="17"/>
-        <v>2.2658509546181378</v>
+        <v>2.2658506954174591</v>
       </c>
       <c r="I95" t="e">
         <f t="shared" ca="1" si="17"/>
@@ -4959,7 +4959,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>125</v>
       </c>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H96" s="29">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2819153308316029E-2</v>
+        <v>1.2819151841876575E-2</v>
       </c>
       <c r="I96" s="29" t="e">
         <f t="shared" ca="1" si="18"/>
@@ -5000,7 +5000,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>65</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>127</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>37</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>1.4211855663317419</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>128</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>3.0954216581398595</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>38</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>27.815217672200689</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>129</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>42.753969619791221</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>51</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>44.376034761469548</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>130</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>96.653485904427001</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>53</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>1.714069387659624</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>131</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>3.7333390035834508</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>132</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>-16.853700910596739</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>133</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>1.2671936833213504</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>76</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>81</v>
       </c>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="22"/>
-        <v>64.650165042137729</v>
+        <v>64.650173682160343</v>
       </c>
       <c r="I115" t="e">
         <f t="shared" ca="1" si="22"/>
@@ -5463,7 +5463,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>134</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>54.597869519772786</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>135</v>
       </c>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="H117" s="28">
         <f t="shared" ca="1" si="24"/>
-        <v>104.78122903825628</v>
+        <v>104.7812376782789</v>
       </c>
       <c r="I117" s="28" t="e">
         <f t="shared" ca="1" si="24"/>
@@ -5521,7 +5521,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>65</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>21</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>30.536966265308898</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>133</v>
       </c>
@@ -5579,13 +5579,13 @@
         <v>1.2671936833213504</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>137</v>
       </c>
       <c r="H122">
         <f ca="1">+H152</f>
-        <v>-4.1690085066040519</v>
+        <v>-4.1690087658047297</v>
       </c>
       <c r="I122" t="e">
         <f ca="1">+I152</f>
@@ -5604,13 +5604,13 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>138</v>
       </c>
       <c r="H123">
         <f ca="1">+H95*H83*-1</f>
-        <v>-0.36253615273890205</v>
+        <v>-0.36253611126679347</v>
       </c>
       <c r="I123" t="e">
         <f ca="1">+I95*I83*-1</f>
@@ -5629,7 +5629,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>24</v>
       </c>
@@ -5654,13 +5654,13 @@
         <v>-4.1805834842265996</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>139</v>
       </c>
       <c r="H125" s="28">
         <f ca="1">+SUM(H120:H124)</f>
-        <v>9.6666117135655529</v>
+        <v>9.6666114958369835</v>
       </c>
       <c r="I125" s="28" t="e">
         <f ca="1">+SUM(I120:I124)</f>
@@ -5679,7 +5679,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>140</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>77</v>
       </c>
@@ -5729,13 +5729,13 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>141</v>
       </c>
       <c r="H129" s="28">
         <f ca="1">+H128+H127+H125</f>
-        <v>9.6666117135655529</v>
+        <v>9.6666114958369835</v>
       </c>
       <c r="I129" s="28" t="e">
         <f ca="1">+I128+I127+I125</f>
@@ -5754,7 +5754,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>65</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>143</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>144</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>145</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>146</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>147</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>148</v>
       </c>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="I139">
         <f ca="1">+H142</f>
-        <v>64.650165042137729</v>
+        <v>64.650173682160343</v>
       </c>
       <c r="J139" t="e">
         <f ca="1">+I142</f>
@@ -5916,7 +5916,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>149</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>150</v>
       </c>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="H141">
         <f ca="1">-MIN(H139+H140,H129+H132+H135)*$E$141</f>
-        <v>-9.6666117135655529</v>
+        <v>-9.6666114958369835</v>
       </c>
       <c r="I141" t="e">
         <f ca="1">-MIN(I139+I140,I129+I132+I135)*$E$141</f>
@@ -5972,7 +5972,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>152</v>
       </c>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="H142" s="28">
         <f ca="1">SUM(H139:H141)</f>
-        <v>64.650173464431774</v>
+        <v>64.650173682160343</v>
       </c>
       <c r="I142" s="28" t="e">
         <f ca="1">SUM(I139:I141)</f>
@@ -6001,13 +6001,13 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>147</v>
       </c>
       <c r="H143">
         <f ca="1">+AVERAGE(G142:H142)*$S$7*-1</f>
-        <v>-4.1690087592728737</v>
+        <v>-4.1690087658047297</v>
       </c>
       <c r="I143" t="e">
         <f ca="1">+AVERAGE(H142:I142)*$S$7*-1</f>
@@ -6026,7 +6026,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>153</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>50.553582888678505</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>154</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>4.0442866310942804</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>149</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>155</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>54.597869519772786</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>156</v>
       </c>
@@ -6155,13 +6155,13 @@
         <v>-4.0442866310942804</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>157</v>
       </c>
       <c r="H151">
         <f ca="1">+H149+H143+H137</f>
-        <v>-7.1416801663927671</v>
+        <v>-7.1416801729246231</v>
       </c>
       <c r="I151" t="e">
         <f ca="1">+I149+I143+I137</f>
@@ -6180,13 +6180,13 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>137</v>
       </c>
       <c r="H152">
         <f ca="1">+H143+H137</f>
-        <v>-4.1690087592728737</v>
+        <v>-4.1690087658047297</v>
       </c>
       <c r="I152" t="e">
         <f ca="1">+I143+I137</f>
@@ -6205,7 +6205,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>140</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>158</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>159</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>65</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>21</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>30.536966265308898</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>84</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>161</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>366.44359518370675</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>162</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>163</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>164</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>165</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>166</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>65</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H171" s="64" t="s">
         <v>84</v>
       </c>
@@ -6381,7 +6381,7 @@
       <c r="K171" s="64"/>
       <c r="L171" s="64"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G172" s="62" t="e">
         <f ca="1">+L167</f>
         <v>#VALUE!</v>
@@ -6406,7 +6406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G173" s="55">
         <v>10</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G174" s="61">
         <f>+G173+0.5</f>
         <v>10.5</v>
@@ -6448,7 +6448,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E175" s="26" t="s">
         <v>168</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G176" s="61">
         <f>+G175+0.5</f>
         <v>11.5</v>
@@ -6493,7 +6493,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="177" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G177" s="61">
         <f>+G176+0.5</f>
         <v>12</v>
@@ -6514,7 +6514,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="178" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G178" s="61"/>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
@@ -6522,7 +6522,7 @@
       <c r="K178" s="29"/>
       <c r="L178" s="29"/>
     </row>
-    <row r="179" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G179" s="68" t="s">
         <v>169</v>
       </c>
@@ -6532,7 +6532,7 @@
       <c r="K179" s="29"/>
       <c r="L179" s="29"/>
     </row>
-    <row r="181" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="5:12" x14ac:dyDescent="0.25">
       <c r="H181" s="64" t="s">
         <v>170</v>
       </c>
@@ -6541,7 +6541,7 @@
       <c r="K181" s="63"/>
       <c r="L181" s="63"/>
     </row>
-    <row r="182" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G182" s="62" t="e">
         <f ca="1">+L167</f>
         <v>#VALUE!</v>
@@ -6566,7 +6566,7 @@
         <v>9.0000000000000024E-2</v>
       </c>
     </row>
-    <row r="183" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G183" s="55">
         <v>10</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="184" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G184" s="61">
         <f>+G183+0.5</f>
         <v>10.5</v>
@@ -6608,7 +6608,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="185" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E185" s="26" t="s">
         <v>168</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="186" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G186" s="61">
         <f>+G185+0.5</f>
         <v>11.5</v>
@@ -6653,7 +6653,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="187" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G187" s="61">
         <f>+G186+0.5</f>
         <v>12</v>
@@ -6674,7 +6674,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="188" spans="5:12" x14ac:dyDescent="0.45">
+    <row r="188" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G188" s="29"/>
     </row>
   </sheetData>
